--- a/data/bpd_fcv.xlsx
+++ b/data/bpd_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8149743860383513</v>
+        <v>0.8290063035045472</v>
       </c>
       <c r="D2">
-        <v>0.8078271467290215</v>
+        <v>0.01710508836750712</v>
       </c>
       <c r="E2">
-        <v>0.7911789379784214</v>
+        <v>0.8084703364786201</v>
       </c>
       <c r="F2">
-        <v>0.7760044270930387</v>
+        <v>0.01414886450690381</v>
       </c>
       <c r="G2">
-        <v>0.7675647579711303</v>
+        <v>0.7895844436119595</v>
+      </c>
+      <c r="H2">
+        <v>0.02115744017527282</v>
+      </c>
+      <c r="I2">
+        <v>0.7727687108452517</v>
+      </c>
+      <c r="J2">
+        <v>0.03426160542212195</v>
+      </c>
+      <c r="K2">
+        <v>0.7615325412964358</v>
+      </c>
+      <c r="L2">
+        <v>0.02484367728360461</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8180976900367568</v>
+        <v>0.8328326018141052</v>
       </c>
       <c r="D3">
-        <v>0.8093688615927167</v>
+        <v>0.01453236676767622</v>
       </c>
       <c r="E3">
-        <v>0.7998844124781951</v>
+        <v>0.8204409948972897</v>
       </c>
       <c r="F3">
-        <v>0.793145886222136</v>
+        <v>0.01184206501536745</v>
       </c>
       <c r="G3">
-        <v>0.775844691661578</v>
+        <v>0.7989486317172515</v>
+      </c>
+      <c r="H3">
+        <v>0.02073440021578505</v>
+      </c>
+      <c r="I3">
+        <v>0.7870115079347577</v>
+      </c>
+      <c r="J3">
+        <v>0.03155701561389206</v>
+      </c>
+      <c r="K3">
+        <v>0.7676355213881721</v>
+      </c>
+      <c r="L3">
+        <v>0.02374883794081912</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7611416685280971</v>
+        <v>0.7687026036942916</v>
       </c>
       <c r="D4">
-        <v>0.7699681011320578</v>
+        <v>0.01418735014209643</v>
       </c>
       <c r="E4">
-        <v>0.7636354619235037</v>
+        <v>0.7586275181932673</v>
       </c>
       <c r="F4">
-        <v>0.774236137017611</v>
+        <v>0.02173391590076622</v>
       </c>
       <c r="G4">
-        <v>0.7682572236992244</v>
+        <v>0.7692410224457522</v>
+      </c>
+      <c r="H4">
+        <v>0.02317959212935706</v>
+      </c>
+      <c r="I4">
+        <v>0.781363427111565</v>
+      </c>
+      <c r="J4">
+        <v>0.0211363178825121</v>
+      </c>
+      <c r="K4">
+        <v>0.7635984706755519</v>
+      </c>
+      <c r="L4">
+        <v>0.01246112832963159</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7548230514478147</v>
+        <v>0.7640499797124396</v>
       </c>
       <c r="D5">
-        <v>0.7629938573449124</v>
+        <v>0.03388293910715554</v>
       </c>
       <c r="E5">
-        <v>0.7684947406033766</v>
+        <v>0.7543945795039878</v>
       </c>
       <c r="F5">
-        <v>0.7484569496522144</v>
+        <v>0.02218091556870864</v>
       </c>
       <c r="G5">
-        <v>0.7352372794968686</v>
+        <v>0.7598917605137633</v>
+      </c>
+      <c r="H5">
+        <v>0.02521632955632306</v>
+      </c>
+      <c r="I5">
+        <v>0.7411854895310889</v>
+      </c>
+      <c r="J5">
+        <v>0.02520780971262462</v>
+      </c>
+      <c r="K5">
+        <v>0.7328947042320806</v>
+      </c>
+      <c r="L5">
+        <v>0.01968859943852495</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7522340528727668</v>
+        <v>0.7673980832291649</v>
       </c>
       <c r="D6">
-        <v>0.7483141403707105</v>
+        <v>0.01949207555067016</v>
       </c>
       <c r="E6">
-        <v>0.7490435217318356</v>
+        <v>0.7763326088178968</v>
       </c>
       <c r="F6">
-        <v>0.7368168673868064</v>
+        <v>0.02474204593949417</v>
       </c>
       <c r="G6">
-        <v>0.7350113387001082</v>
+        <v>0.7647255713539701</v>
+      </c>
+      <c r="H6">
+        <v>0.02360439616417246</v>
+      </c>
+      <c r="I6">
+        <v>0.7493663692847314</v>
+      </c>
+      <c r="J6">
+        <v>0.01999342872752569</v>
+      </c>
+      <c r="K6">
+        <v>0.7342399151372088</v>
+      </c>
+      <c r="L6">
+        <v>0.0249900055818145</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.715470407680535</v>
+        <v>0.8312137226594478</v>
       </c>
       <c r="D7">
-        <v>0.6945086383238972</v>
+        <v>0.01182619287020923</v>
       </c>
       <c r="E7">
-        <v>0.6854750814210708</v>
+        <v>0.8197744413807424</v>
       </c>
       <c r="F7">
-        <v>0.6819178098213895</v>
+        <v>0.01902258772529293</v>
       </c>
       <c r="G7">
-        <v>0.6429678477769046</v>
+        <v>0.8039360545542816</v>
+      </c>
+      <c r="H7">
+        <v>0.02162671793513873</v>
+      </c>
+      <c r="I7">
+        <v>0.8059093083794024</v>
+      </c>
+      <c r="J7">
+        <v>0.02668171393622859</v>
+      </c>
+      <c r="K7">
+        <v>0.7827149034987756</v>
+      </c>
+      <c r="L7">
+        <v>0.02746805779067175</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.6347219747480473</v>
+        <v>0.8337531560915117</v>
       </c>
       <c r="D8">
-        <v>0.6461249597294347</v>
+        <v>0.01205233928829273</v>
       </c>
       <c r="E8">
-        <v>0.6214066817648872</v>
+        <v>0.8226755030536056</v>
       </c>
       <c r="F8">
-        <v>0.6513843744373368</v>
+        <v>0.01450328094857435</v>
       </c>
       <c r="G8">
-        <v>0.6502138298554451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8197472221211598</v>
-      </c>
-      <c r="D9">
-        <v>0.816494581964873</v>
-      </c>
-      <c r="E9">
-        <v>0.808815225473236</v>
-      </c>
-      <c r="F9">
-        <v>0.8065345255495581</v>
-      </c>
-      <c r="G9">
-        <v>0.7954343297701338</v>
+        <v>0.8180065468735366</v>
+      </c>
+      <c r="H8">
+        <v>0.02201438389461094</v>
+      </c>
+      <c r="I8">
+        <v>0.8079560318322775</v>
+      </c>
+      <c r="J8">
+        <v>0.02920561019688661</v>
+      </c>
+      <c r="K8">
+        <v>0.7961150438724658</v>
+      </c>
+      <c r="L8">
+        <v>0.02121312981701478</v>
       </c>
     </row>
   </sheetData>
